--- a/Documentatie/Analyse/Hardware analyse/Bill of Materials/BOM.xlsx
+++ b/Documentatie/Analyse/Hardware analyse/Bill of Materials/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelte\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXB050\Desktop\Bachelorproef\Documentatie\Analyse\Hardware analyse\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{56AE931E-D28F-4E5E-856D-217B1AA5D2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B02EE588-2434-45D3-8F40-4328217D9FF6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF58C2D-2BB6-4357-B55F-B0A6E4D33059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -137,12 +137,6 @@
     <t>I2C level shifter</t>
   </si>
   <si>
-    <t>PI6ULS5V9306</t>
-  </si>
-  <si>
-    <t>729-PI6ULS5V9306UEX</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>81-GRM188R60J106KE7J</t>
+  </si>
+  <si>
+    <t>PCA9306DCUR</t>
+  </si>
+  <si>
+    <t>595-PCA9306DCUR</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.000\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +590,9 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -599,12 +602,9 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -884,42 +884,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="3" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="22.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="3" width="5.5546875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="22.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1">
+    <row r="1" spans="2:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="2:10" ht="18.75" thickBot="1">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-    </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -948,7 +948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickTop="1">
+    <row r="4" spans="2:10" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>1</v>
       </c>
@@ -974,12 +974,12 @@
         <f>C4*H4</f>
         <v>2.48</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="33">
         <f>SUM(I4:I23)</f>
-        <v>40.310999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.6" customHeight="1">
+        <v>39.950999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <v>2</v>
       </c>
@@ -1005,9 +1005,9 @@
         <f>C5*H5</f>
         <v>12.51</v>
       </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>3</v>
       </c>
@@ -1033,9 +1033,9 @@
         <f>C6*H6</f>
         <v>4.51</v>
       </c>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <v>4</v>
       </c>
@@ -1061,9 +1061,9 @@
         <f t="shared" ref="I7:I23" si="0">C7*H7</f>
         <v>0.92100000000000004</v>
       </c>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>5</v>
       </c>
@@ -1089,9 +1089,9 @@
         <f t="shared" si="0"/>
         <v>0.29099999999999998</v>
       </c>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <v>6</v>
       </c>
@@ -1117,9 +1117,9 @@
         <f>C9*H9</f>
         <v>1.57</v>
       </c>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>7</v>
       </c>
@@ -1145,9 +1145,9 @@
         <f>C10*H10</f>
         <v>12.35</v>
       </c>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <v>8</v>
       </c>
@@ -1158,24 +1158,24 @@
         <v>32</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="H11" s="21">
-        <v>1.1499999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="I11" s="22">
         <f>C11*H11</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.6" customHeight="1">
+        <v>0.79</v>
+      </c>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
@@ -1184,9 +1184,9 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <v>9</v>
       </c>
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="H13" s="21">
         <v>0.47899999999999998</v>
@@ -1212,9 +1212,9 @@
         <f>C13*H13</f>
         <v>0.47899999999999998</v>
       </c>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>10</v>
       </c>
@@ -1222,16 +1222,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H14" s="29">
         <v>0.36699999999999999</v>
@@ -1240,9 +1240,9 @@
         <f>C14*H14</f>
         <v>0.73399999999999999</v>
       </c>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>11</v>
       </c>
@@ -1250,16 +1250,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="H15" s="21">
         <v>0.13400000000000001</v>
@@ -1268,9 +1268,9 @@
         <f>C15*H15</f>
         <v>0.13400000000000001</v>
       </c>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
@@ -1279,9 +1279,9 @@
       <c r="G16" s="28"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <v>12</v>
       </c>
@@ -1289,16 +1289,16 @@
         <v>5</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>45</v>
       </c>
       <c r="H17" s="21">
         <v>0.22600000000000001</v>
@@ -1307,9 +1307,9 @@
         <f>C17*H17</f>
         <v>1.1300000000000001</v>
       </c>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>13</v>
       </c>
@@ -1317,16 +1317,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" s="6">
         <v>0.22600000000000001</v>
@@ -1335,9 +1335,9 @@
         <f>C18*H18</f>
         <v>0.45200000000000001</v>
       </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <v>14</v>
       </c>
@@ -1345,16 +1345,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19" s="21">
         <v>0.24399999999999999</v>
@@ -1363,9 +1363,9 @@
         <f>C19*H19</f>
         <v>0.24399999999999999</v>
       </c>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>15</v>
       </c>
@@ -1373,16 +1373,16 @@
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" s="6">
         <v>0.22600000000000001</v>
@@ -1391,9 +1391,9 @@
         <f>C20*H20</f>
         <v>0.45200000000000001</v>
       </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J20" s="34"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <v>16</v>
       </c>
@@ -1401,16 +1401,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H21" s="21">
         <v>0.22600000000000001</v>
@@ -1419,9 +1419,9 @@
         <f>C21*H21</f>
         <v>0.22600000000000001</v>
       </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>17</v>
       </c>
@@ -1429,16 +1429,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H22" s="6">
         <v>0.22600000000000001</v>
@@ -1447,9 +1447,9 @@
         <f t="shared" si="0"/>
         <v>0.22600000000000001</v>
       </c>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <v>18</v>
       </c>
@@ -1457,16 +1457,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H23" s="21">
         <v>0.22600000000000001</v>
@@ -1475,9 +1475,9 @@
         <f t="shared" si="0"/>
         <v>0.45200000000000001</v>
       </c>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J23" s="34"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -1486,9 +1486,9 @@
       <c r="G24" s="11"/>
       <c r="H24" s="29"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <v>19</v>
       </c>
@@ -1496,16 +1496,16 @@
         <v>5</v>
       </c>
       <c r="D25" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>60</v>
       </c>
       <c r="H25" s="21">
         <v>0.10299999999999999</v>
@@ -1514,9 +1514,9 @@
         <f>C25*H25</f>
         <v>0.51500000000000001</v>
       </c>
-      <c r="J25" s="31"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>20</v>
       </c>
@@ -1524,16 +1524,16 @@
         <v>6</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H26" s="6">
         <v>0.254</v>
@@ -1542,9 +1542,9 @@
         <f t="shared" ref="I26:I28" si="1">C26*H26</f>
         <v>1.524</v>
       </c>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J26" s="34"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <v>21</v>
       </c>
@@ -1552,16 +1552,16 @@
         <v>2</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H27" s="21">
         <v>0.19700000000000001</v>
@@ -1570,9 +1570,9 @@
         <f t="shared" si="1"/>
         <v>0.39400000000000002</v>
       </c>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J27" s="34"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>22</v>
       </c>
@@ -1580,16 +1580,16 @@
         <v>2</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H28" s="6">
         <v>0.13200000000000001</v>
@@ -1598,9 +1598,9 @@
         <f t="shared" si="1"/>
         <v>0.26400000000000001</v>
       </c>
-      <c r="J28" s="31"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="20"/>
@@ -1609,9 +1609,9 @@
       <c r="G29" s="20"/>
       <c r="H29" s="21"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="31"/>
-    </row>
-    <row r="30" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J29" s="34"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
@@ -1620,9 +1620,9 @@
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="31"/>
-    </row>
-    <row r="31" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J30" s="34"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="20"/>
@@ -1631,9 +1631,9 @@
       <c r="G31" s="20"/>
       <c r="H31" s="21"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="31"/>
-    </row>
-    <row r="32" spans="2:10" ht="15.6" customHeight="1">
+      <c r="J31" s="34"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -1642,9 +1642,9 @@
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="31"/>
-    </row>
-    <row r="33" spans="2:10" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="J32" s="34"/>
+    </row>
+    <row r="33" spans="2:10" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
@@ -1653,7 +1653,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="32"/>
+      <c r="J33" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
